--- a/contents/battle_game_2/battle_game_2.xlsx
+++ b/contents/battle_game_2/battle_game_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_game_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D48B3D8-801E-45E1-B3F9-620F452ECE91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A17891-F02E-4944-9D87-202902108F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96779A7-8DD4-4BB2-B040-DE71C56FC9E7}">
   <dimension ref="A1:AS45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
